--- a/biology/Microbiologie/Maf_G/Maf_G.xlsx
+++ b/biology/Microbiologie/Maf_G/Maf_G.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Maf G est la protéine de la musculoaponeurotic fibrosarcoma homolog G. C'est une petite protéine nucléaire ubiquitaire présente chez tous les mammifères. Elle est composée de 162 acides aminés et, chez l’espèce humaine, le gène la codant est situé sur le chromosome 17. Il comprend trois introns, dont le premier est non codant et deux exons. La taille des exons est respectivement de 140 et 91 pb, ce qui est caractéristique de l’espèce humaine.
 Cette protéine est exprimée dans la plupart des tissus, mais à des niveaux variables. Cela dépend à la fois du tissu et de l’espèce concernée. Dans chaque cas, la régulation de MafG se fait selon un patron précis qui dépend encore une fois du tissu et de l’espèce. Chez l’homme, elle est exprimée en abondance dans les muscles squelettiques. On la trouve aussi au niveau du cœur et du cerveau. MafG est aussi la plus importante des petites Mafs dans la moelle osseuse et elle est présente dans toutes les cellules hématopoïétiques.
@@ -514,7 +526,9 @@
           <t>Famille des Mafs</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les protéines Mafs font partie de la super-famille des protéines bZIP. Les Mafs sont caractérisées par la présence de trois régions dans leur portion carboxy-terminale, soit les régions EHR, basique et la glissière à leucine.
 La région EHR, l’extended homology region, est une région riche en résidus hydrophobes et ceux-ci interagissent avec les acides aminés hydrophiles de la protéine. Cette interaction vient donner la conformation en hélice alpha amphipathique.
@@ -549,7 +563,9 @@
           <t>Fonctions de la protéine Maf G</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La protéine Maf G est une protéine régulatrice bidirectionnelle de la transcription génique. Cela implique qu’elle peut, selon le cas, favoriser la transcription ou la réprimer. La protéine MafG se dimérise à d’autres protéines possédant le domaine bZIP, présent entre autres chez certains facteurs de transcription.
 Lorsqu’un hétérodimère est formé, la protéine MafG permet à ce dernier de se lier à la molécule d’ADN via le MARE et le facteur de transcription peut ainsi induire la transcription du ou des gènes associés.
@@ -582,7 +598,9 @@
           <t>Partenaire obligatoire des petites Mafs</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il existe deux familles de facteurs de transcription qui sont des partenaires obligatoires des petites Mafs. Ce sont les CNC (Cap’n’collar) et les Bach. Ceux-ci possèdent des séquences permettant d'initier ou de modifier la transcription génique, mais ils sont dans l’incapacité de se lier directement à la molécule d’ADN. Donc, pour parvenir à accomplir leur fonction respective, ils doivent d'abord se dimériser à MafG. Sinon, ils sont dans l’incapacité d’accomplir leur rôle. Il est donc impératif, pour les membres des CNC et de Bach de se dimériser à une MafG via la glissière à leucine.
 </t>
